--- a/$PAR.xlsx
+++ b/$PAR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeffe\Documents\GitHub\martinshkreli-models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C30F20-C8EE-434A-9D03-DD1EEF6B9B45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F0918FB-7973-4354-B380-B9D143ABF9B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17295" yWindow="90" windowWidth="23130" windowHeight="20805" activeTab="1" xr2:uid="{8F193AD5-4822-438A-B757-2B234AE27955}"/>
+    <workbookView xWindow="-15" yWindow="90" windowWidth="14370" windowHeight="20805" activeTab="1" xr2:uid="{8F193AD5-4822-438A-B757-2B234AE27955}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
@@ -234,7 +234,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -344,11 +344,11 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
@@ -361,10 +361,10 @@
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
@@ -385,10 +385,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -755,9 +751,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE7FAD33-99C5-4121-980B-8556C8EA76DD}">
   <dimension ref="A1:DE61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="T1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AC17" sqref="AC17"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="U1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AA29" sqref="AA29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1163,31 +1159,31 @@
       </c>
       <c r="J9" s="27"/>
       <c r="K9" s="27">
-        <f>K14/K12</f>
+        <f t="shared" ref="K9:Q9" si="2">K14/K12</f>
         <v>0.24821078114533499</v>
       </c>
       <c r="L9" s="27">
-        <f>L14/L12</f>
+        <f t="shared" si="2"/>
         <v>0.23077171839123842</v>
       </c>
       <c r="M9" s="27">
-        <f>M14/M12</f>
+        <f t="shared" si="2"/>
         <v>0.26780337941628274</v>
       </c>
       <c r="N9" s="27">
-        <f>N14/N12</f>
+        <f t="shared" si="2"/>
         <v>0.23092087577287265</v>
       </c>
       <c r="O9" s="27">
-        <f>O14/O12</f>
+        <f t="shared" si="2"/>
         <v>0.20418921069382562</v>
       </c>
       <c r="P9" s="27">
-        <f>P14/P12</f>
+        <f t="shared" si="2"/>
         <v>0.2630910821961282</v>
       </c>
       <c r="Q9" s="27">
-        <f>Q14/Q12</f>
+        <f t="shared" si="2"/>
         <v>0.2451164258922271</v>
       </c>
       <c r="Z9" s="25"/>
@@ -1223,31 +1219,31 @@
       </c>
       <c r="J10" s="22"/>
       <c r="K10" s="27">
-        <f>K8+K9</f>
+        <f t="shared" ref="K10:Q10" si="3">K8+K9</f>
         <v>0.33583117109130622</v>
       </c>
       <c r="L10" s="27">
-        <f>L8+L9</f>
+        <f t="shared" si="3"/>
         <v>0.31802873782968349</v>
       </c>
       <c r="M10" s="27">
-        <f>M8+M9</f>
+        <f t="shared" si="3"/>
         <v>0.37658367341707732</v>
       </c>
       <c r="N10" s="27">
-        <f>N8+N9</f>
+        <f t="shared" si="3"/>
         <v>0.23296330088395187</v>
       </c>
       <c r="O10" s="27">
-        <f>O8+O9</f>
+        <f t="shared" si="3"/>
         <v>0.29026108625255975</v>
       </c>
       <c r="P10" s="27">
-        <f>P8+P9</f>
+        <f t="shared" si="3"/>
         <v>0.29571981919072848</v>
       </c>
       <c r="Q10" s="27">
-        <f>Q8+Q9</f>
+        <f t="shared" si="3"/>
         <v>0.29402756321965107</v>
       </c>
       <c r="Z10" s="25"/>
@@ -1335,35 +1331,35 @@
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="24">
-        <f>SUM(J3:J6)</f>
+        <f t="shared" ref="J12:Q12" si="4">SUM(J3:J6)</f>
         <v>80.284999999999997</v>
       </c>
       <c r="K12" s="24">
-        <f>SUM(K3:K6)</f>
+        <f t="shared" si="4"/>
         <v>85.092999999999989</v>
       </c>
       <c r="L12" s="24">
-        <f>SUM(L3:L6)</f>
+        <f t="shared" si="4"/>
         <v>92.76700000000001</v>
       </c>
       <c r="M12" s="24">
-        <f>SUM(M3:M6)</f>
+        <f t="shared" si="4"/>
         <v>97.65</v>
       </c>
       <c r="N12" s="24">
-        <f>SUM(N3:N6)</f>
+        <f t="shared" si="4"/>
         <v>100.43700000000001</v>
       </c>
       <c r="O12" s="24">
-        <f>SUM(O3:O6)</f>
+        <f t="shared" si="4"/>
         <v>100.544</v>
       </c>
       <c r="P12" s="24">
-        <f>SUM(P3:P6)</f>
+        <f t="shared" si="4"/>
         <v>107.13399999999999</v>
       </c>
       <c r="Q12" s="24">
-        <f>SUM(Q3:Q6)</f>
+        <f t="shared" si="4"/>
         <v>107.708</v>
       </c>
       <c r="Y12" s="4">
@@ -1381,328 +1377,328 @@
         <v>415.82299999999998</v>
       </c>
       <c r="AC12" s="4">
-        <f>AB12*(1+$X$30)</f>
-        <v>498.98759999999993</v>
+        <f t="shared" ref="AC12:AI12" si="5">AB12*(1+$X$30)</f>
+        <v>478.19644999999991</v>
       </c>
       <c r="AD12" s="4">
-        <f>AC12*(1+$X$30)</f>
-        <v>598.78511999999989</v>
+        <f t="shared" si="5"/>
+        <v>549.92591749999985</v>
       </c>
       <c r="AE12" s="4">
-        <f>AD12*(1+$X$30)</f>
-        <v>718.54214399999989</v>
+        <f t="shared" si="5"/>
+        <v>632.41480512499982</v>
       </c>
       <c r="AF12" s="4">
-        <f>AE12*(1+$X$30)</f>
-        <v>862.25057279999987</v>
+        <f t="shared" si="5"/>
+        <v>727.27702589374974</v>
       </c>
       <c r="AG12" s="4">
-        <f>AF12*(1+$X$30)</f>
-        <v>1034.7006873599998</v>
+        <f t="shared" si="5"/>
+        <v>836.3685797778121</v>
       </c>
       <c r="AH12" s="4">
-        <f>AG12*(1+$X$30)</f>
-        <v>1241.6408248319997</v>
+        <f t="shared" si="5"/>
+        <v>961.82386674448389</v>
       </c>
       <c r="AI12" s="4">
-        <f>AH12*(1+$X$30)</f>
-        <v>1489.9689897983997</v>
+        <f t="shared" si="5"/>
+        <v>1106.0974467561564</v>
       </c>
       <c r="AJ12" s="4">
         <f>AI12*(1+$X$31)</f>
-        <v>1475.0692999004157</v>
+        <v>1106.0974467561564</v>
       </c>
       <c r="AK12" s="4">
-        <f t="shared" ref="AK12:CV12" si="2">AJ12*(1+$X$31)</f>
-        <v>1460.3186069014116</v>
+        <f t="shared" ref="AK12:CV12" si="6">AJ12*(1+$X$31)</f>
+        <v>1106.0974467561564</v>
       </c>
       <c r="AL12" s="4">
-        <f t="shared" si="2"/>
-        <v>1445.7154208323975</v>
+        <f t="shared" si="6"/>
+        <v>1106.0974467561564</v>
       </c>
       <c r="AM12" s="4">
-        <f t="shared" si="2"/>
-        <v>1431.2582666240735</v>
+        <f t="shared" si="6"/>
+        <v>1106.0974467561564</v>
       </c>
       <c r="AN12" s="4">
-        <f t="shared" si="2"/>
-        <v>1416.9456839578327</v>
+        <f t="shared" si="6"/>
+        <v>1106.0974467561564</v>
       </c>
       <c r="AO12" s="4">
-        <f t="shared" si="2"/>
-        <v>1402.7762271182544</v>
+        <f t="shared" si="6"/>
+        <v>1106.0974467561564</v>
       </c>
       <c r="AP12" s="4">
-        <f t="shared" si="2"/>
-        <v>1388.7484648470718</v>
+        <f t="shared" si="6"/>
+        <v>1106.0974467561564</v>
       </c>
       <c r="AQ12" s="4">
-        <f t="shared" si="2"/>
-        <v>1374.8609801986011</v>
+        <f t="shared" si="6"/>
+        <v>1106.0974467561564</v>
       </c>
       <c r="AR12" s="4">
-        <f t="shared" si="2"/>
-        <v>1361.112370396615</v>
+        <f t="shared" si="6"/>
+        <v>1106.0974467561564</v>
       </c>
       <c r="AS12" s="4">
-        <f t="shared" si="2"/>
-        <v>1347.5012466926489</v>
+        <f t="shared" si="6"/>
+        <v>1106.0974467561564</v>
       </c>
       <c r="AT12" s="4">
-        <f t="shared" si="2"/>
-        <v>1334.0262342257224</v>
+        <f t="shared" si="6"/>
+        <v>1106.0974467561564</v>
       </c>
       <c r="AU12" s="4">
-        <f t="shared" si="2"/>
-        <v>1320.6859718834651</v>
+        <f t="shared" si="6"/>
+        <v>1106.0974467561564</v>
       </c>
       <c r="AV12" s="4">
-        <f t="shared" si="2"/>
-        <v>1307.4791121646304</v>
+        <f t="shared" si="6"/>
+        <v>1106.0974467561564</v>
       </c>
       <c r="AW12" s="4">
-        <f t="shared" si="2"/>
-        <v>1294.4043210429841</v>
+        <f t="shared" si="6"/>
+        <v>1106.0974467561564</v>
       </c>
       <c r="AX12" s="4">
-        <f t="shared" si="2"/>
-        <v>1281.4602778325543</v>
+        <f t="shared" si="6"/>
+        <v>1106.0974467561564</v>
       </c>
       <c r="AY12" s="4">
-        <f t="shared" si="2"/>
-        <v>1268.6456750542288</v>
+        <f t="shared" si="6"/>
+        <v>1106.0974467561564</v>
       </c>
       <c r="AZ12" s="4">
-        <f t="shared" si="2"/>
-        <v>1255.9592183036866</v>
+        <f t="shared" si="6"/>
+        <v>1106.0974467561564</v>
       </c>
       <c r="BA12" s="4">
-        <f t="shared" si="2"/>
-        <v>1243.3996261206498</v>
+        <f t="shared" si="6"/>
+        <v>1106.0974467561564</v>
       </c>
       <c r="BB12" s="4">
-        <f t="shared" si="2"/>
-        <v>1230.9656298594434</v>
+        <f t="shared" si="6"/>
+        <v>1106.0974467561564</v>
       </c>
       <c r="BC12" s="4">
-        <f t="shared" si="2"/>
-        <v>1218.6559735608489</v>
+        <f t="shared" si="6"/>
+        <v>1106.0974467561564</v>
       </c>
       <c r="BD12" s="4">
-        <f t="shared" si="2"/>
-        <v>1206.4694138252405</v>
+        <f t="shared" si="6"/>
+        <v>1106.0974467561564</v>
       </c>
       <c r="BE12" s="4">
-        <f t="shared" si="2"/>
-        <v>1194.4047196869881</v>
+        <f t="shared" si="6"/>
+        <v>1106.0974467561564</v>
       </c>
       <c r="BF12" s="4">
-        <f t="shared" si="2"/>
-        <v>1182.4606724901182</v>
+        <f t="shared" si="6"/>
+        <v>1106.0974467561564</v>
       </c>
       <c r="BG12" s="4">
-        <f t="shared" si="2"/>
-        <v>1170.6360657652169</v>
+        <f t="shared" si="6"/>
+        <v>1106.0974467561564</v>
       </c>
       <c r="BH12" s="4">
-        <f t="shared" si="2"/>
-        <v>1158.9297051075648</v>
+        <f t="shared" si="6"/>
+        <v>1106.0974467561564</v>
       </c>
       <c r="BI12" s="4">
-        <f t="shared" si="2"/>
-        <v>1147.3404080564892</v>
+        <f t="shared" si="6"/>
+        <v>1106.0974467561564</v>
       </c>
       <c r="BJ12" s="4">
-        <f t="shared" si="2"/>
-        <v>1135.8670039759243</v>
+        <f t="shared" si="6"/>
+        <v>1106.0974467561564</v>
       </c>
       <c r="BK12" s="4">
-        <f t="shared" si="2"/>
-        <v>1124.5083339361649</v>
+        <f t="shared" si="6"/>
+        <v>1106.0974467561564</v>
       </c>
       <c r="BL12" s="4">
-        <f t="shared" si="2"/>
-        <v>1113.2632505968033</v>
+        <f t="shared" si="6"/>
+        <v>1106.0974467561564</v>
       </c>
       <c r="BM12" s="4">
-        <f t="shared" si="2"/>
-        <v>1102.1306180908352</v>
+        <f t="shared" si="6"/>
+        <v>1106.0974467561564</v>
       </c>
       <c r="BN12" s="4">
-        <f t="shared" si="2"/>
-        <v>1091.1093119099269</v>
+        <f t="shared" si="6"/>
+        <v>1106.0974467561564</v>
       </c>
       <c r="BO12" s="4">
-        <f t="shared" si="2"/>
-        <v>1080.1982187908277</v>
+        <f t="shared" si="6"/>
+        <v>1106.0974467561564</v>
       </c>
       <c r="BP12" s="4">
-        <f t="shared" si="2"/>
-        <v>1069.3962366029193</v>
+        <f t="shared" si="6"/>
+        <v>1106.0974467561564</v>
       </c>
       <c r="BQ12" s="4">
-        <f t="shared" si="2"/>
-        <v>1058.7022742368902</v>
+        <f t="shared" si="6"/>
+        <v>1106.0974467561564</v>
       </c>
       <c r="BR12" s="4">
-        <f t="shared" si="2"/>
-        <v>1048.1152514945213</v>
+        <f t="shared" si="6"/>
+        <v>1106.0974467561564</v>
       </c>
       <c r="BS12" s="4">
-        <f t="shared" si="2"/>
-        <v>1037.634098979576</v>
+        <f t="shared" si="6"/>
+        <v>1106.0974467561564</v>
       </c>
       <c r="BT12" s="4">
-        <f t="shared" si="2"/>
-        <v>1027.2577579897802</v>
+        <f t="shared" si="6"/>
+        <v>1106.0974467561564</v>
       </c>
       <c r="BU12" s="4">
-        <f t="shared" si="2"/>
-        <v>1016.9851804098824</v>
+        <f t="shared" si="6"/>
+        <v>1106.0974467561564</v>
       </c>
       <c r="BV12" s="4">
-        <f t="shared" si="2"/>
-        <v>1006.8153286057836</v>
+        <f t="shared" si="6"/>
+        <v>1106.0974467561564</v>
       </c>
       <c r="BW12" s="4">
-        <f t="shared" si="2"/>
-        <v>996.74717531972578</v>
+        <f t="shared" si="6"/>
+        <v>1106.0974467561564</v>
       </c>
       <c r="BX12" s="4">
-        <f t="shared" si="2"/>
-        <v>986.7797035665285</v>
+        <f t="shared" si="6"/>
+        <v>1106.0974467561564</v>
       </c>
       <c r="BY12" s="4">
-        <f t="shared" si="2"/>
-        <v>976.91190653086323</v>
+        <f t="shared" si="6"/>
+        <v>1106.0974467561564</v>
       </c>
       <c r="BZ12" s="4">
-        <f t="shared" si="2"/>
-        <v>967.14278746555465</v>
+        <f t="shared" si="6"/>
+        <v>1106.0974467561564</v>
       </c>
       <c r="CA12" s="4">
-        <f t="shared" si="2"/>
-        <v>957.47135959089906</v>
+        <f t="shared" si="6"/>
+        <v>1106.0974467561564</v>
       </c>
       <c r="CB12" s="4">
-        <f t="shared" si="2"/>
-        <v>947.89664599499008</v>
+        <f t="shared" si="6"/>
+        <v>1106.0974467561564</v>
       </c>
       <c r="CC12" s="4">
-        <f t="shared" si="2"/>
-        <v>938.41767953504018</v>
+        <f t="shared" si="6"/>
+        <v>1106.0974467561564</v>
       </c>
       <c r="CD12" s="4">
-        <f t="shared" si="2"/>
-        <v>929.03350273968977</v>
+        <f t="shared" si="6"/>
+        <v>1106.0974467561564</v>
       </c>
       <c r="CE12" s="4">
-        <f t="shared" si="2"/>
-        <v>919.74316771229292</v>
+        <f t="shared" si="6"/>
+        <v>1106.0974467561564</v>
       </c>
       <c r="CF12" s="4">
-        <f t="shared" si="2"/>
-        <v>910.54573603516997</v>
+        <f t="shared" si="6"/>
+        <v>1106.0974467561564</v>
       </c>
       <c r="CG12" s="4">
-        <f t="shared" si="2"/>
-        <v>901.44027867481827</v>
+        <f t="shared" si="6"/>
+        <v>1106.0974467561564</v>
       </c>
       <c r="CH12" s="4">
-        <f t="shared" si="2"/>
-        <v>892.4258758880701</v>
+        <f t="shared" si="6"/>
+        <v>1106.0974467561564</v>
       </c>
       <c r="CI12" s="4">
-        <f t="shared" si="2"/>
-        <v>883.50161712918941</v>
+        <f t="shared" si="6"/>
+        <v>1106.0974467561564</v>
       </c>
       <c r="CJ12" s="4">
-        <f t="shared" si="2"/>
-        <v>874.66660095789746</v>
+        <f t="shared" si="6"/>
+        <v>1106.0974467561564</v>
       </c>
       <c r="CK12" s="4">
-        <f t="shared" si="2"/>
-        <v>865.91993494831843</v>
+        <f t="shared" si="6"/>
+        <v>1106.0974467561564</v>
       </c>
       <c r="CL12" s="4">
-        <f t="shared" si="2"/>
-        <v>857.26073559883525</v>
+        <f t="shared" si="6"/>
+        <v>1106.0974467561564</v>
       </c>
       <c r="CM12" s="4">
-        <f t="shared" si="2"/>
-        <v>848.68812824284691</v>
+        <f t="shared" si="6"/>
+        <v>1106.0974467561564</v>
       </c>
       <c r="CN12" s="4">
-        <f t="shared" si="2"/>
-        <v>840.20124696041842</v>
+        <f t="shared" si="6"/>
+        <v>1106.0974467561564</v>
       </c>
       <c r="CO12" s="4">
-        <f t="shared" si="2"/>
-        <v>831.79923449081423</v>
+        <f t="shared" si="6"/>
+        <v>1106.0974467561564</v>
       </c>
       <c r="CP12" s="4">
-        <f t="shared" si="2"/>
-        <v>823.48124214590609</v>
+        <f t="shared" si="6"/>
+        <v>1106.0974467561564</v>
       </c>
       <c r="CQ12" s="4">
-        <f t="shared" si="2"/>
-        <v>815.24642972444701</v>
+        <f t="shared" si="6"/>
+        <v>1106.0974467561564</v>
       </c>
       <c r="CR12" s="4">
-        <f t="shared" si="2"/>
-        <v>807.09396542720253</v>
+        <f t="shared" si="6"/>
+        <v>1106.0974467561564</v>
       </c>
       <c r="CS12" s="4">
-        <f t="shared" si="2"/>
-        <v>799.02302577293051</v>
+        <f t="shared" si="6"/>
+        <v>1106.0974467561564</v>
       </c>
       <c r="CT12" s="4">
-        <f t="shared" si="2"/>
-        <v>791.0327955152012</v>
+        <f t="shared" si="6"/>
+        <v>1106.0974467561564</v>
       </c>
       <c r="CU12" s="4">
-        <f t="shared" si="2"/>
-        <v>783.12246756004913</v>
+        <f t="shared" si="6"/>
+        <v>1106.0974467561564</v>
       </c>
       <c r="CV12" s="4">
-        <f t="shared" si="2"/>
-        <v>775.29124288444859</v>
+        <f t="shared" si="6"/>
+        <v>1106.0974467561564</v>
       </c>
       <c r="CW12" s="4">
-        <f t="shared" ref="CW12:DE12" si="3">CV12*(1+$X$31)</f>
-        <v>767.53833045560407</v>
+        <f t="shared" ref="CW12:DE12" si="7">CV12*(1+$X$31)</f>
+        <v>1106.0974467561564</v>
       </c>
       <c r="CX12" s="4">
-        <f t="shared" si="3"/>
-        <v>759.86294715104805</v>
+        <f t="shared" si="7"/>
+        <v>1106.0974467561564</v>
       </c>
       <c r="CY12" s="4">
-        <f t="shared" si="3"/>
-        <v>752.26431767953761</v>
+        <f t="shared" si="7"/>
+        <v>1106.0974467561564</v>
       </c>
       <c r="CZ12" s="4">
-        <f t="shared" si="3"/>
-        <v>744.74167450274228</v>
+        <f t="shared" si="7"/>
+        <v>1106.0974467561564</v>
       </c>
       <c r="DA12" s="4">
-        <f t="shared" si="3"/>
-        <v>737.29425775771483</v>
+        <f t="shared" si="7"/>
+        <v>1106.0974467561564</v>
       </c>
       <c r="DB12" s="4">
-        <f t="shared" si="3"/>
-        <v>729.92131518013764</v>
+        <f t="shared" si="7"/>
+        <v>1106.0974467561564</v>
       </c>
       <c r="DC12" s="4">
-        <f t="shared" si="3"/>
-        <v>722.62210202833626</v>
+        <f t="shared" si="7"/>
+        <v>1106.0974467561564</v>
       </c>
       <c r="DD12" s="4">
-        <f t="shared" si="3"/>
-        <v>715.39588100805292</v>
+        <f t="shared" si="7"/>
+        <v>1106.0974467561564</v>
       </c>
       <c r="DE12" s="4">
-        <f t="shared" si="3"/>
-        <v>708.24192219797237</v>
+        <f t="shared" si="7"/>
+        <v>1106.0974467561564</v>
       </c>
     </row>
     <row r="13" spans="1:109" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -1748,6 +1744,26 @@
       <c r="Q13" s="23">
         <v>81.307000000000002</v>
       </c>
+      <c r="Y13" s="25">
+        <f>(Z12-Y12)/Y12</f>
+        <v>0.32317364093065015</v>
+      </c>
+      <c r="Z13" s="25">
+        <f>(AA12-Z12)/Z12</f>
+        <v>0.25777725929382483</v>
+      </c>
+      <c r="AA13" s="25">
+        <f>(AB12-AA12)/AA12</f>
+        <v>0.1687151309040319</v>
+      </c>
+      <c r="AB13" s="25">
+        <f>(AC12-AB12)/AB12</f>
+        <v>0.14999999999999986</v>
+      </c>
+      <c r="AC13" s="25">
+        <f>(AD12-AC12)/AC12</f>
+        <v>0.14999999999999991</v>
+      </c>
     </row>
     <row r="14" spans="1:109" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
@@ -1762,35 +1778,35 @@
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
       <c r="J14" s="23">
-        <f>J12-J13</f>
+        <f t="shared" ref="J14:Q14" si="8">J12-J13</f>
         <v>20.613</v>
       </c>
       <c r="K14" s="23">
-        <f>K12-K13</f>
+        <f t="shared" si="8"/>
         <v>21.120999999999988</v>
       </c>
       <c r="L14" s="23">
-        <f>L12-L13</f>
+        <f t="shared" si="8"/>
         <v>21.408000000000015</v>
       </c>
       <c r="M14" s="23">
-        <f>M12-M13</f>
+        <f t="shared" si="8"/>
         <v>26.15100000000001</v>
       </c>
       <c r="N14" s="23">
-        <f>N12-N13</f>
+        <f t="shared" si="8"/>
         <v>23.193000000000012</v>
       </c>
       <c r="O14" s="23">
-        <f>O12-O13</f>
+        <f t="shared" si="8"/>
         <v>20.53</v>
       </c>
       <c r="P14" s="23">
-        <f>P12-P13</f>
+        <f t="shared" si="8"/>
         <v>28.185999999999993</v>
       </c>
       <c r="Q14" s="23">
-        <f>Q12-Q13</f>
+        <f t="shared" si="8"/>
         <v>26.400999999999996</v>
       </c>
     </row>
@@ -1973,35 +1989,35 @@
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
       <c r="J19" s="23">
-        <f>SUM(J15:J18)</f>
+        <f t="shared" ref="J19:Q19" si="9">SUM(J15:J18)</f>
         <v>33.208999999999996</v>
       </c>
       <c r="K19" s="23">
-        <f>SUM(K15:K18)</f>
+        <f t="shared" si="9"/>
         <v>37.22</v>
       </c>
       <c r="L19" s="23">
-        <f>SUM(L15:L18)</f>
+        <f t="shared" si="9"/>
         <v>39.385999999999996</v>
       </c>
       <c r="M19" s="23">
-        <f>SUM(M15:M18)</f>
+        <f t="shared" si="9"/>
         <v>36.467000000000006</v>
       </c>
       <c r="N19" s="23">
-        <f>SUM(N15:N18)</f>
+        <f t="shared" si="9"/>
         <v>37.057000000000002</v>
       </c>
       <c r="O19" s="23">
-        <f>SUM(O15:O18)</f>
+        <f t="shared" si="9"/>
         <v>38.183</v>
       </c>
       <c r="P19" s="23">
-        <f>SUM(P15:P18)</f>
+        <f t="shared" si="9"/>
         <v>41.372999999999998</v>
       </c>
       <c r="Q19" s="23">
-        <f>SUM(Q15:Q18)</f>
+        <f t="shared" si="9"/>
         <v>41.405999999999999</v>
       </c>
     </row>
@@ -2018,35 +2034,35 @@
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" s="23">
-        <f>J14-J19</f>
+        <f t="shared" ref="J20:Q20" si="10">J14-J19</f>
         <v>-12.595999999999997</v>
       </c>
       <c r="K20" s="23">
-        <f>K14-K19</f>
+        <f t="shared" si="10"/>
         <v>-16.099000000000011</v>
       </c>
       <c r="L20" s="23">
-        <f>L14-L19</f>
+        <f t="shared" si="10"/>
         <v>-17.97799999999998</v>
       </c>
       <c r="M20" s="23">
-        <f>M14-M19</f>
+        <f t="shared" si="10"/>
         <v>-10.315999999999995</v>
       </c>
       <c r="N20" s="23">
-        <f>N14-N19</f>
+        <f t="shared" si="10"/>
         <v>-13.86399999999999</v>
       </c>
       <c r="O20" s="23">
-        <f>O14-O19</f>
+        <f t="shared" si="10"/>
         <v>-17.652999999999999</v>
       </c>
       <c r="P20" s="23">
-        <f>P14-P19</f>
+        <f t="shared" si="10"/>
         <v>-13.187000000000005</v>
       </c>
       <c r="Q20" s="23">
-        <f>Q14-Q19</f>
+        <f t="shared" si="10"/>
         <v>-15.005000000000003</v>
       </c>
     </row>
@@ -2108,35 +2124,35 @@
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
       <c r="J22" s="23">
-        <f>J20+J21</f>
+        <f t="shared" ref="J22:Q22" si="11">J20+J21</f>
         <v>-15.426999999999996</v>
       </c>
       <c r="K22" s="23">
-        <f>K20+K21</f>
+        <f t="shared" si="11"/>
         <v>-18.807000000000009</v>
       </c>
       <c r="L22" s="23">
-        <f>L20+L21</f>
+        <f t="shared" si="11"/>
         <v>-20.296999999999979</v>
       </c>
       <c r="M22" s="23">
-        <f>M20+M21</f>
+        <f t="shared" si="11"/>
         <v>-12.482999999999995</v>
       </c>
       <c r="N22" s="23">
-        <f>N20+N21</f>
+        <f t="shared" si="11"/>
         <v>-15.589999999999989</v>
       </c>
       <c r="O22" s="23">
-        <f>O20+O21</f>
+        <f t="shared" si="11"/>
         <v>-19.387999999999998</v>
       </c>
       <c r="P22" s="23">
-        <f>P20+P21</f>
+        <f t="shared" si="11"/>
         <v>-15.310000000000006</v>
       </c>
       <c r="Q22" s="23">
-        <f>Q20+Q21</f>
+        <f t="shared" si="11"/>
         <v>-16.784000000000002</v>
       </c>
     </row>
@@ -2197,35 +2213,35 @@
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
       <c r="J24" s="23">
-        <f>J22+J23</f>
+        <f t="shared" ref="J24:Q24" si="12">J22+J23</f>
         <v>-15.436999999999996</v>
       </c>
       <c r="K24" s="23">
-        <f>K22+K23</f>
+        <f t="shared" si="12"/>
         <v>-18.84800000000001</v>
       </c>
       <c r="L24" s="23">
-        <f>L22+L23</f>
+        <f t="shared" si="12"/>
         <v>-20.874999999999979</v>
       </c>
       <c r="M24" s="23">
-        <f>M22+M23</f>
+        <f t="shared" si="12"/>
         <v>-13.105999999999995</v>
       </c>
       <c r="N24" s="23">
-        <f>N22+N23</f>
+        <f t="shared" si="12"/>
         <v>-15.904999999999989</v>
       </c>
       <c r="O24" s="23">
-        <f>O22+O23</f>
+        <f t="shared" si="12"/>
         <v>-19.796999999999997</v>
       </c>
       <c r="P24" s="23">
-        <f>P22+P23</f>
+        <f t="shared" si="12"/>
         <v>-15.516000000000005</v>
       </c>
       <c r="Q24" s="23">
-        <f>Q22+Q23</f>
+        <f t="shared" si="12"/>
         <v>-17.842000000000002</v>
       </c>
     </row>
@@ -2242,35 +2258,35 @@
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
       <c r="J25" s="23">
-        <f>J24/J26</f>
+        <f t="shared" ref="J25:Q25" si="13">J24/J26</f>
         <v>-0.57237671486837216</v>
       </c>
       <c r="K25" s="23">
-        <f>K24/K26</f>
+        <f t="shared" si="13"/>
         <v>-0.69853976725224265</v>
       </c>
       <c r="L25" s="23">
-        <f>L24/L26</f>
+        <f t="shared" si="13"/>
         <v>-0.77001106602729541</v>
       </c>
       <c r="M25" s="23">
-        <f>M24/M26</f>
+        <f t="shared" si="13"/>
         <v>-0.48329522826167104</v>
       </c>
       <c r="N25" s="23">
-        <f>N24/N26</f>
+        <f t="shared" si="13"/>
         <v>-0.58166325336454028</v>
       </c>
       <c r="O25" s="23">
-        <f>O24/O26</f>
+        <f t="shared" si="13"/>
         <v>-0.72365390941989249</v>
       </c>
       <c r="P25" s="23">
-        <f>P24/P26</f>
+        <f t="shared" si="13"/>
         <v>-0.56479324403028552</v>
       </c>
       <c r="Q25" s="23">
-        <f>Q24/Q26</f>
+        <f t="shared" si="13"/>
         <v>-0.63794336384439365</v>
       </c>
     </row>
@@ -2349,31 +2365,31 @@
         <v>28</v>
       </c>
       <c r="D29" s="13" t="e">
-        <f t="shared" ref="D29:J29" si="4">+D14/D12</f>
+        <f t="shared" ref="D29:J29" si="14">+D14/D12</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E29" s="13" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F29" s="13" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G29" s="13" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H29" s="13" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I29" s="13" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J29" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0.2567478358348384</v>
       </c>
       <c r="K29" s="13">
@@ -2381,27 +2397,27 @@
         <v>0.24821078114533499</v>
       </c>
       <c r="L29" s="13">
-        <f t="shared" ref="L29:Q29" si="5">+L14/L12</f>
+        <f t="shared" ref="L29:Q29" si="15">+L14/L12</f>
         <v>0.23077171839123842</v>
       </c>
       <c r="M29" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>0.26780337941628274</v>
       </c>
       <c r="N29" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>0.23092087577287265</v>
       </c>
       <c r="O29" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>0.20418921069382562</v>
       </c>
       <c r="P29" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>0.2630910821961282</v>
       </c>
       <c r="Q29" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>0.2451164258922271</v>
       </c>
     </row>
@@ -2410,7 +2426,7 @@
         <v>29</v>
       </c>
       <c r="X30" s="15">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="31" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2430,7 +2446,7 @@
         <v>31</v>
       </c>
       <c r="X31" s="17">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2450,7 +2466,7 @@
         <v>32</v>
       </c>
       <c r="X32" s="17">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="33" spans="2:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2471,7 +2487,7 @@
       </c>
       <c r="X33" s="26">
         <f>NPV(X32,Y12:DE12)</f>
-        <v>7506.5856306166661</v>
+        <v>4120.6585220078041</v>
       </c>
     </row>
     <row r="34" spans="2:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2500,8 +2516,7 @@
         <v>26</v>
       </c>
       <c r="X34" s="19">
-        <f>Main!L6</f>
-        <v>28.02</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="35" spans="2:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2522,7 +2537,7 @@
       </c>
       <c r="X35" s="20">
         <f>X33/X34</f>
-        <v>267.9009861033785</v>
+        <v>144.58450954413348</v>
       </c>
     </row>
     <row r="36" spans="2:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2543,7 +2558,7 @@
       </c>
       <c r="X36" s="15">
         <f>(X35-Main!L5)/Main!L5</f>
-        <v>5.1572279040077804</v>
+        <v>2.323017916436072</v>
       </c>
     </row>
     <row r="37" spans="2:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2564,7 +2579,7 @@
       </c>
       <c r="X37" s="18">
         <f>X34*X35</f>
-        <v>7506.5856306166652</v>
+        <v>4120.6585220078041</v>
       </c>
     </row>
     <row r="38" spans="2:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
